--- a/biology/Biochimie/Disulfure_d'allyle/Disulfure_d'allyle.xlsx
+++ b/biology/Biochimie/Disulfure_d'allyle/Disulfure_d'allyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Disulfure_d%27allyle</t>
+          <t>Disulfure_d'allyle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le disulfure d'allyle ou plus exactement disulfure de diallyle est un composé allylique qui consiste en deux groupes allyliques liés par une liaison disulfure. Il a donc pour formule semi-développée (CH2=CH–CH2)–S–S–(CH2–CH=CH2).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Disulfure_d%27allyle</t>
+          <t>Disulfure_d'allyle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mélange racémique d'allicine peut être formé par oxydation du disulfure d'allyle[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mélange racémique d'allicine peut être formé par oxydation du disulfure d'allyle:
 (S–CH2CH=CH2)2   +   (R)–CO3H   →   (CH2=CH–CH2)–S(O)S–(CH2CH=CH2)   +   (R)–CO2H
 où (R)–CO3H est l'acide méta-chloroperbenzoïque.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Disulfure_d%27allyle</t>
+          <t>Disulfure_d'allyle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le disulfure de diallyle a de nombreuses propriétés médicinales. C'est 
 un antihypertenseur,
 un agent anti-cancéreux (antinéoplasique et antimutagène),
-un antibiotique naturel contre certaines bactéries pathogènes, dont les Listeria, E. coli O157:H7 et il est jusqu'à 300 fois plus actif contre Campylobacter jejuni organisé en biofilm[4] que les antibiotiques classiques ;  Il pénètre le biofilm et se montre 136 fois plus efficace que l’érythromycine et 300 fois plus que la ciprofloxacine ; il tue la bactérie C. jejuni en se fixant sur une enzyme contenant du soufre, bloquant alors le métabolisme de la bactérie[4].
+un antibiotique naturel contre certaines bactéries pathogènes, dont les Listeria, E. coli O157:H7 et il est jusqu'à 300 fois plus actif contre Campylobacter jejuni organisé en biofilm que les antibiotiques classiques ;  Il pénètre le biofilm et se montre 136 fois plus efficace que l’érythromycine et 300 fois plus que la ciprofloxacine ; il tue la bactérie C. jejuni en se fixant sur une enzyme contenant du soufre, bloquant alors le métabolisme de la bactérie.
 un spermicide, qui peut être utilisé comme un contraceptif administré localement par voie vaginale.</t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Disulfure_d%27allyle</t>
+          <t>Disulfure_d'allyle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le disulfure d'allyle est aussi utilisé en cosmétologie comme agent parfumant.
 </t>
